--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikei\Documents\dashboard-vendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E22C94E-8DC5-4275-8210-361B6F6E6096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CAF368-9F3F-484E-86C4-739C7F0407BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ABFF1A1F-2B5A-470E-9F04-25A930523244}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="890">
   <si>
     <t>Data da Venda</t>
   </si>
@@ -3268,15 +3268,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B40870A0-655F-41CE-8CD3-3FE30909C87F}" name="Tabela2" displayName="Tabela2" ref="A1:G514" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G514" xr:uid="{DC60D6BC-214E-4CC7-B79F-BC9082F930E2}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="FESTA NOSSA CIAL DE ARMARINHO LTDA"/>
-        <filter val="FESTA NOSSA COM DE ARMARINHO LTDA"/>
-        <filter val="FESTA NOSSA COMERCIAL DE ARMARINHO LTDA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G514" xr:uid="{DC60D6BC-214E-4CC7-B79F-BC9082F930E2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G513">
     <sortCondition descending="1" ref="B1:B513"/>
   </sortState>
@@ -3596,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC60D6BC-214E-4CC7-B79F-BC9082F930E2}">
   <dimension ref="A1:G514"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B517" sqref="B517"/>
+    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="H504" sqref="H504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3633,7 +3625,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45727</v>
       </c>
@@ -3658,7 +3650,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45771</v>
       </c>
@@ -3683,7 +3675,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>45721</v>
       </c>
@@ -3708,7 +3700,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45750</v>
       </c>
@@ -3733,7 +3725,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45761</v>
       </c>
@@ -3758,7 +3750,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45792</v>
       </c>
@@ -3783,7 +3775,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45674</v>
       </c>
@@ -3808,7 +3800,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45729</v>
       </c>
@@ -3833,7 +3825,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45790</v>
       </c>
@@ -3858,7 +3850,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45777</v>
       </c>
@@ -3883,7 +3875,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45660</v>
       </c>
@@ -3908,7 +3900,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45718</v>
       </c>
@@ -3933,7 +3925,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45779</v>
       </c>
@@ -3958,7 +3950,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45687</v>
       </c>
@@ -3983,7 +3975,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45756</v>
       </c>
@@ -4008,7 +4000,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45784</v>
       </c>
@@ -4033,7 +4025,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45784</v>
       </c>
@@ -4058,7 +4050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45776</v>
       </c>
@@ -4083,7 +4075,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45726</v>
       </c>
@@ -4108,7 +4100,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>45747</v>
       </c>
@@ -4133,7 +4125,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45799</v>
       </c>
@@ -4158,7 +4150,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45728</v>
       </c>
@@ -4183,7 +4175,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45777</v>
       </c>
@@ -4208,7 +4200,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45694</v>
       </c>
@@ -4233,7 +4225,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>45721</v>
       </c>
@@ -4258,7 +4250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>45754</v>
       </c>
@@ -4283,7 +4275,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45784</v>
       </c>
@@ -4308,7 +4300,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45783</v>
       </c>
@@ -4333,7 +4325,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45729</v>
       </c>
@@ -4358,7 +4350,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>45771</v>
       </c>
@@ -4383,7 +4375,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>45666</v>
       </c>
@@ -4408,7 +4400,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>45696</v>
       </c>
@@ -4433,7 +4425,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>45756</v>
       </c>
@@ -4458,7 +4450,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>45786</v>
       </c>
@@ -4483,7 +4475,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>45791</v>
       </c>
@@ -4508,7 +4500,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>45701</v>
       </c>
@@ -4533,7 +4525,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>45673</v>
       </c>
@@ -4558,7 +4550,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>45698</v>
       </c>
@@ -4583,7 +4575,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>45731</v>
       </c>
@@ -4608,7 +4600,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>45714</v>
       </c>
@@ -4633,7 +4625,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>45739</v>
       </c>
@@ -4658,7 +4650,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>45780</v>
       </c>
@@ -4683,7 +4675,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>45790</v>
       </c>
@@ -4708,7 +4700,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>45797</v>
       </c>
@@ -4733,7 +4725,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45700</v>
       </c>
@@ -4758,7 +4750,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45692</v>
       </c>
@@ -4783,7 +4775,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>45730</v>
       </c>
@@ -4808,7 +4800,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>45742</v>
       </c>
@@ -4833,7 +4825,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>45756</v>
       </c>
@@ -4858,7 +4850,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>45776</v>
       </c>
@@ -4883,7 +4875,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>45707</v>
       </c>
@@ -4908,7 +4900,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>45802</v>
       </c>
@@ -4933,7 +4925,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>45709</v>
       </c>
@@ -4958,7 +4950,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>45733</v>
       </c>
@@ -4983,7 +4975,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>45665</v>
       </c>
@@ -5008,7 +5000,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>45692</v>
       </c>
@@ -5033,7 +5025,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>45811</v>
       </c>
@@ -5058,7 +5050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>45755</v>
       </c>
@@ -5083,7 +5075,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>45730</v>
       </c>
@@ -5108,7 +5100,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>45674</v>
       </c>
@@ -5133,7 +5125,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>45726</v>
       </c>
@@ -5158,7 +5150,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>45758</v>
       </c>
@@ -5183,7 +5175,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>45792</v>
       </c>
@@ -5208,7 +5200,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>45695</v>
       </c>
@@ -5233,7 +5225,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>45673</v>
       </c>
@@ -5258,7 +5250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>45700</v>
       </c>
@@ -5283,7 +5275,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>45760</v>
       </c>
@@ -5308,7 +5300,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>45814</v>
       </c>
@@ -5333,7 +5325,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>45678</v>
       </c>
@@ -5358,7 +5350,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>45684</v>
       </c>
@@ -5383,7 +5375,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>45715</v>
       </c>
@@ -5408,7 +5400,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>45769</v>
       </c>
@@ -5433,7 +5425,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>45782</v>
       </c>
@@ -5458,7 +5450,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>45792</v>
       </c>
@@ -5483,7 +5475,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>45796</v>
       </c>
@@ -5508,7 +5500,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>45702</v>
       </c>
@@ -5533,7 +5525,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>45762</v>
       </c>
@@ -5558,7 +5550,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>45815</v>
       </c>
@@ -5583,7 +5575,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>45793</v>
       </c>
@@ -5608,7 +5600,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>45663</v>
       </c>
@@ -5633,7 +5625,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>45680</v>
       </c>
@@ -5658,7 +5650,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>45786</v>
       </c>
@@ -5683,7 +5675,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>45660</v>
       </c>
@@ -5708,7 +5700,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>45771</v>
       </c>
@@ -5733,7 +5725,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>45668</v>
       </c>
@@ -5758,7 +5750,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>45698</v>
       </c>
@@ -5783,7 +5775,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>45788</v>
       </c>
@@ -5808,7 +5800,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>45736</v>
       </c>
@@ -5833,7 +5825,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>45808</v>
       </c>
@@ -5858,7 +5850,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>45735</v>
       </c>
@@ -5883,7 +5875,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>45672</v>
       </c>
@@ -5908,7 +5900,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>45674</v>
       </c>
@@ -5933,7 +5925,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>45692</v>
       </c>
@@ -5958,7 +5950,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>45705</v>
       </c>
@@ -5983,7 +5975,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>45714</v>
       </c>
@@ -6008,7 +6000,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>45721</v>
       </c>
@@ -6033,7 +6025,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>45730</v>
       </c>
@@ -6058,7 +6050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>45730</v>
       </c>
@@ -6083,7 +6075,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>45737</v>
       </c>
@@ -6108,7 +6100,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>45741</v>
       </c>
@@ -6133,7 +6125,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>45750</v>
       </c>
@@ -6158,7 +6150,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>45757</v>
       </c>
@@ -6183,7 +6175,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>45758</v>
       </c>
@@ -6208,7 +6200,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>45770</v>
       </c>
@@ -6233,7 +6225,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>45772</v>
       </c>
@@ -6258,7 +6250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>45785</v>
       </c>
@@ -6283,7 +6275,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>45699</v>
       </c>
@@ -6308,7 +6300,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
         <v>45809</v>
       </c>
@@ -6333,7 +6325,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>45811</v>
       </c>
@@ -6358,7 +6350,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
         <v>45743</v>
       </c>
@@ -6383,7 +6375,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>45769</v>
       </c>
@@ -6408,7 +6400,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>45791</v>
       </c>
@@ -6433,7 +6425,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>45819</v>
       </c>
@@ -6458,7 +6450,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>45769</v>
       </c>
@@ -6483,7 +6475,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>45689</v>
       </c>
@@ -6508,7 +6500,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>45730</v>
       </c>
@@ -6533,7 +6525,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>45777</v>
       </c>
@@ -6558,7 +6550,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>45780</v>
       </c>
@@ -6583,7 +6575,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>45761</v>
       </c>
@@ -6608,7 +6600,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>45676</v>
       </c>
@@ -6633,7 +6625,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <v>45728</v>
       </c>
@@ -6658,7 +6650,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>45759</v>
       </c>
@@ -6683,7 +6675,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>45794</v>
       </c>
@@ -6708,7 +6700,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>45663</v>
       </c>
@@ -6733,7 +6725,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>45712</v>
       </c>
@@ -6758,7 +6750,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>45817</v>
       </c>
@@ -6783,7 +6775,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
         <v>45677</v>
       </c>
@@ -6808,7 +6800,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>45733</v>
       </c>
@@ -6833,7 +6825,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>45756</v>
       </c>
@@ -6858,7 +6850,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>45790</v>
       </c>
@@ -6883,7 +6875,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>45790</v>
       </c>
@@ -6908,7 +6900,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>45795</v>
       </c>
@@ -6933,7 +6925,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>45803</v>
       </c>
@@ -6958,7 +6950,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>45707</v>
       </c>
@@ -6983,7 +6975,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>45777</v>
       </c>
@@ -7008,7 +7000,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>45730</v>
       </c>
@@ -7033,7 +7025,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>45748</v>
       </c>
@@ -7058,7 +7050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
         <v>45734</v>
       </c>
@@ -7083,7 +7075,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
         <v>45701</v>
       </c>
@@ -7108,7 +7100,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>45756</v>
       </c>
@@ -7133,7 +7125,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>45771</v>
       </c>
@@ -7158,7 +7150,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
         <v>45796</v>
       </c>
@@ -7183,7 +7175,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>45709</v>
       </c>
@@ -7208,7 +7200,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>45684</v>
       </c>
@@ -7233,7 +7225,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>45693</v>
       </c>
@@ -7258,7 +7250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>45701</v>
       </c>
@@ -7283,7 +7275,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>45778</v>
       </c>
@@ -7308,7 +7300,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>45803</v>
       </c>
@@ -7333,7 +7325,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>45667</v>
       </c>
@@ -7358,7 +7350,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>45715</v>
       </c>
@@ -7383,7 +7375,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="9">
         <v>45715</v>
       </c>
@@ -7408,7 +7400,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>45728</v>
       </c>
@@ -7433,7 +7425,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>45694</v>
       </c>
@@ -7458,7 +7450,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>45788</v>
       </c>
@@ -7483,7 +7475,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="11">
         <v>45775</v>
       </c>
@@ -7508,7 +7500,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>45737</v>
       </c>
@@ -7533,7 +7525,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>45696</v>
       </c>
@@ -7558,7 +7550,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
         <v>45698</v>
       </c>
@@ -7583,7 +7575,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>45743</v>
       </c>
@@ -7608,7 +7600,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>45791</v>
       </c>
@@ -7633,7 +7625,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="9">
         <v>45793</v>
       </c>
@@ -7658,7 +7650,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>45698</v>
       </c>
@@ -7683,7 +7675,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>45793</v>
       </c>
@@ -7708,7 +7700,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>45734</v>
       </c>
@@ -7733,7 +7725,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>45805</v>
       </c>
@@ -7758,7 +7750,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>45750</v>
       </c>
@@ -7783,7 +7775,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="9">
         <v>45799</v>
       </c>
@@ -7808,7 +7800,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>45806</v>
       </c>
@@ -7833,7 +7825,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>45680</v>
       </c>
@@ -7858,7 +7850,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>45704</v>
       </c>
@@ -7883,7 +7875,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="11">
         <v>45730</v>
       </c>
@@ -7908,7 +7900,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="11">
         <v>45766</v>
       </c>
@@ -7933,7 +7925,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>45797</v>
       </c>
@@ -7958,7 +7950,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="52">
         <v>45684</v>
       </c>
@@ -7983,7 +7975,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>45807</v>
       </c>
@@ -8008,7 +8000,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>45705</v>
       </c>
@@ -8033,7 +8025,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>45731</v>
       </c>
@@ -8058,7 +8050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11">
         <v>45767</v>
       </c>
@@ -8083,7 +8075,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>45798</v>
       </c>
@@ -8108,7 +8100,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>45702</v>
       </c>
@@ -8133,7 +8125,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>45684</v>
       </c>
@@ -8158,7 +8150,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>45758</v>
       </c>
@@ -8183,7 +8175,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>45722</v>
       </c>
@@ -8208,7 +8200,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>45722</v>
       </c>
@@ -8233,7 +8225,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>45789</v>
       </c>
@@ -8258,7 +8250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>45712</v>
       </c>
@@ -8283,7 +8275,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="9">
         <v>45756</v>
       </c>
@@ -8308,7 +8300,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>45761</v>
       </c>
@@ -8333,7 +8325,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>45785</v>
       </c>
@@ -8358,7 +8350,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>45729</v>
       </c>
@@ -8383,7 +8375,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>45733</v>
       </c>
@@ -8408,7 +8400,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>45782</v>
       </c>
@@ -8433,7 +8425,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>45665</v>
       </c>
@@ -8458,7 +8450,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>45757</v>
       </c>
@@ -8483,7 +8475,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>45757</v>
       </c>
@@ -8508,7 +8500,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>45798</v>
       </c>
@@ -8533,7 +8525,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>45804</v>
       </c>
@@ -8558,7 +8550,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>45804</v>
       </c>
@@ -8583,7 +8575,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>45694</v>
       </c>
@@ -8608,7 +8600,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>45723</v>
       </c>
@@ -8633,7 +8625,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>45707</v>
       </c>
@@ -8658,7 +8650,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>45726</v>
       </c>
@@ -8683,7 +8675,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>45726</v>
       </c>
@@ -8708,7 +8700,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>45727</v>
       </c>
@@ -8733,7 +8725,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="11">
         <v>45733</v>
       </c>
@@ -8758,7 +8750,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>45799</v>
       </c>
@@ -8783,7 +8775,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>45732</v>
       </c>
@@ -8808,7 +8800,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>45672</v>
       </c>
@@ -8833,7 +8825,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="11">
         <v>45725</v>
       </c>
@@ -8858,7 +8850,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>45734</v>
       </c>
@@ -8883,7 +8875,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>45716</v>
       </c>
@@ -8908,7 +8900,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>45784</v>
       </c>
@@ -8933,7 +8925,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>45796</v>
       </c>
@@ -8958,7 +8950,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="9">
         <v>45805</v>
       </c>
@@ -8983,7 +8975,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="14">
         <v>45813</v>
       </c>
@@ -9008,7 +9000,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>45751</v>
       </c>
@@ -9033,7 +9025,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>45758</v>
       </c>
@@ -9058,7 +9050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>45776</v>
       </c>
@@ -9083,7 +9075,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>45803</v>
       </c>
@@ -9108,7 +9100,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>45691</v>
       </c>
@@ -9133,7 +9125,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>45758</v>
       </c>
@@ -9158,7 +9150,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>45695</v>
       </c>
@@ -9183,7 +9175,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>45701</v>
       </c>
@@ -9208,7 +9200,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>45713</v>
       </c>
@@ -9233,7 +9225,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>45674</v>
       </c>
@@ -9258,7 +9250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>45690</v>
       </c>
@@ -9283,7 +9275,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>45782</v>
       </c>
@@ -9308,7 +9300,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>45691</v>
       </c>
@@ -9333,7 +9325,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="9">
         <v>45659</v>
       </c>
@@ -9358,7 +9350,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>45685</v>
       </c>
@@ -9383,7 +9375,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>45687</v>
       </c>
@@ -9408,7 +9400,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="11">
         <v>45735</v>
       </c>
@@ -9433,7 +9425,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="11">
         <v>45772</v>
       </c>
@@ -9458,7 +9450,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>45805</v>
       </c>
@@ -9483,7 +9475,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>45658</v>
       </c>
@@ -9508,7 +9500,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="9">
         <v>45672</v>
       </c>
@@ -9533,7 +9525,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>45778</v>
       </c>
@@ -9558,7 +9550,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>45782</v>
       </c>
@@ -9583,7 +9575,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>45711</v>
       </c>
@@ -9608,7 +9600,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>45804</v>
       </c>
@@ -9633,7 +9625,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="15">
         <v>45743</v>
       </c>
@@ -9658,7 +9650,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>45744</v>
       </c>
@@ -9683,7 +9675,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>45700</v>
       </c>
@@ -9708,7 +9700,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>45811</v>
       </c>
@@ -9733,7 +9725,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>45664</v>
       </c>
@@ -9758,7 +9750,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>45752</v>
       </c>
@@ -9783,7 +9775,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>45659</v>
       </c>
@@ -9808,7 +9800,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>45689</v>
       </c>
@@ -9833,7 +9825,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>45718</v>
       </c>
@@ -9858,7 +9850,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>45749</v>
       </c>
@@ -9883,7 +9875,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>45779</v>
       </c>
@@ -9908,7 +9900,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>45690</v>
       </c>
@@ -9933,7 +9925,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>45719</v>
       </c>
@@ -9958,7 +9950,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="11">
         <v>45750</v>
       </c>
@@ -9983,7 +9975,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>45809</v>
       </c>
@@ -10008,7 +10000,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>45670</v>
       </c>
@@ -10033,7 +10025,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>45790</v>
       </c>
@@ -10058,7 +10050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>45813</v>
       </c>
@@ -10083,7 +10075,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>45680</v>
       </c>
@@ -10108,7 +10100,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>45708</v>
       </c>
@@ -10133,7 +10125,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="11">
         <v>45768</v>
       </c>
@@ -10158,7 +10150,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>45800</v>
       </c>
@@ -10183,7 +10175,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>45663</v>
       </c>
@@ -10208,7 +10200,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>45679</v>
       </c>
@@ -10233,7 +10225,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>45777</v>
       </c>
@@ -10258,7 +10250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>45794</v>
       </c>
@@ -10283,7 +10275,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>45810</v>
       </c>
@@ -10308,7 +10300,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>45750</v>
       </c>
@@ -10333,7 +10325,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>45695</v>
       </c>
@@ -10358,7 +10350,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="9">
         <v>45721</v>
       </c>
@@ -10383,7 +10375,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>45758</v>
       </c>
@@ -10408,7 +10400,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>45667</v>
       </c>
@@ -10433,7 +10425,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>45725</v>
       </c>
@@ -10458,7 +10450,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="14">
         <v>45812</v>
       </c>
@@ -10483,7 +10475,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>45771</v>
       </c>
@@ -10508,7 +10500,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>45688</v>
       </c>
@@ -10533,7 +10525,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>45691</v>
       </c>
@@ -10558,7 +10550,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="11">
         <v>45738</v>
       </c>
@@ -10583,7 +10575,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>45775</v>
       </c>
@@ -10608,7 +10600,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="15">
         <v>45810</v>
       </c>
@@ -10633,7 +10625,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>45818</v>
       </c>
@@ -10658,7 +10650,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>45669</v>
       </c>
@@ -10683,7 +10675,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>45699</v>
       </c>
@@ -10708,7 +10700,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="11">
         <v>45724</v>
       </c>
@@ -10733,7 +10725,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="9">
         <v>45749</v>
       </c>
@@ -10758,7 +10750,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="11">
         <v>45758</v>
       </c>
@@ -10783,7 +10775,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>45771</v>
       </c>
@@ -10808,7 +10800,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>45789</v>
       </c>
@@ -10833,7 +10825,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>45697</v>
       </c>
@@ -10858,7 +10850,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>45667</v>
       </c>
@@ -10883,7 +10875,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>45697</v>
       </c>
@@ -10908,7 +10900,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="11">
         <v>45723</v>
       </c>
@@ -10933,7 +10925,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="11">
         <v>45757</v>
       </c>
@@ -10958,7 +10950,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>45787</v>
       </c>
@@ -10983,7 +10975,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>45677</v>
       </c>
@@ -11008,7 +11000,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>45703</v>
       </c>
@@ -11033,7 +11025,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>45729</v>
       </c>
@@ -11058,7 +11050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="11">
         <v>45764</v>
       </c>
@@ -11083,7 +11075,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>45795</v>
       </c>
@@ -11108,7 +11100,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>45662</v>
       </c>
@@ -11133,7 +11125,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>45719</v>
       </c>
@@ -11158,7 +11150,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>45730</v>
       </c>
@@ -11183,7 +11175,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>45796</v>
       </c>
@@ -11208,7 +11200,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>45753</v>
       </c>
@@ -11233,7 +11225,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="9">
         <v>45693</v>
       </c>
@@ -11258,7 +11250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="9">
         <v>45783</v>
       </c>
@@ -11283,7 +11275,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>45713</v>
       </c>
@@ -11308,7 +11300,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>45713</v>
       </c>
@@ -11583,7 +11575,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>45665</v>
       </c>
@@ -11608,7 +11600,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>45668</v>
       </c>
@@ -11633,7 +11625,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>45770</v>
       </c>
@@ -11658,7 +11650,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>45787</v>
       </c>
@@ -11683,7 +11675,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>45686</v>
       </c>
@@ -11708,7 +11700,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>45675</v>
       </c>
@@ -11733,7 +11725,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>45701</v>
       </c>
@@ -11758,7 +11750,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="11">
         <v>45727</v>
       </c>
@@ -11783,7 +11775,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="11">
         <v>45761</v>
       </c>
@@ -11808,7 +11800,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>45793</v>
       </c>
@@ -11833,7 +11825,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>45664</v>
       </c>
@@ -11858,7 +11850,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>45701</v>
       </c>
@@ -11883,7 +11875,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>45728</v>
       </c>
@@ -11908,7 +11900,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>45728</v>
       </c>
@@ -11933,7 +11925,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>45729</v>
       </c>
@@ -11958,7 +11950,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>45680</v>
       </c>
@@ -11983,7 +11975,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="9">
         <v>45758</v>
       </c>
@@ -12008,7 +12000,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>45660</v>
       </c>
@@ -12033,7 +12025,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>45680</v>
       </c>
@@ -12058,7 +12050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="15">
         <v>45727</v>
       </c>
@@ -12083,7 +12075,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="11">
         <v>45751</v>
       </c>
@@ -12108,7 +12100,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>45764</v>
       </c>
@@ -12133,7 +12125,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>45780</v>
       </c>
@@ -12158,7 +12150,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>45810</v>
       </c>
@@ -12183,7 +12175,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="11">
         <v>45776</v>
       </c>
@@ -12208,7 +12200,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>45679</v>
       </c>
@@ -12233,7 +12225,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="11">
         <v>45732</v>
       </c>
@@ -12258,7 +12250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="15">
         <v>45728</v>
       </c>
@@ -12283,7 +12275,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="15">
         <v>45797</v>
       </c>
@@ -12308,7 +12300,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>45759</v>
       </c>
@@ -12333,7 +12325,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>45772</v>
       </c>
@@ -12358,7 +12350,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>45784</v>
       </c>
@@ -12383,7 +12375,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>45733</v>
       </c>
@@ -12408,7 +12400,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>45667</v>
       </c>
@@ -12433,7 +12425,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>45671</v>
       </c>
@@ -12458,7 +12450,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>45688</v>
       </c>
@@ -12483,7 +12475,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>45707</v>
       </c>
@@ -12508,7 +12500,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="15">
         <v>45796</v>
       </c>
@@ -12533,7 +12525,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="11">
         <v>45737</v>
       </c>
@@ -12558,7 +12550,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>45749</v>
       </c>
@@ -12583,7 +12575,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="14">
         <v>45810</v>
       </c>
@@ -12608,7 +12600,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>45674</v>
       </c>
@@ -12633,7 +12625,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>45698</v>
       </c>
@@ -12658,7 +12650,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>45693</v>
       </c>
@@ -12683,7 +12675,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>45785</v>
       </c>
@@ -12708,7 +12700,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="9">
         <v>45679</v>
       </c>
@@ -12733,7 +12725,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>45666</v>
       </c>
@@ -12758,7 +12750,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>45685</v>
       </c>
@@ -12783,7 +12775,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>45685</v>
       </c>
@@ -12808,7 +12800,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>45694</v>
       </c>
@@ -12833,7 +12825,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>45723</v>
       </c>
@@ -12858,7 +12850,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>45730</v>
       </c>
@@ -12883,7 +12875,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>45740</v>
       </c>
@@ -12908,7 +12900,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>45752</v>
       </c>
@@ -12933,7 +12925,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="11">
         <v>45774</v>
       </c>
@@ -12958,7 +12950,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>45777</v>
       </c>
@@ -12983,7 +12975,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="9">
         <v>45672</v>
       </c>
@@ -13008,7 +13000,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="9">
         <v>45688</v>
       </c>
@@ -13033,7 +13025,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="9">
         <v>45805</v>
       </c>
@@ -13058,7 +13050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>45664</v>
       </c>
@@ -13083,7 +13075,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>45695</v>
       </c>
@@ -13108,7 +13100,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="11">
         <v>45722</v>
       </c>
@@ -13133,7 +13125,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>45785</v>
       </c>
@@ -13158,7 +13150,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>45812</v>
       </c>
@@ -13183,7 +13175,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>45713</v>
       </c>
@@ -13208,7 +13200,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>45727</v>
       </c>
@@ -13233,7 +13225,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>45705</v>
       </c>
@@ -13258,7 +13250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>45705</v>
       </c>
@@ -13283,7 +13275,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>45661</v>
       </c>
@@ -13308,7 +13300,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>45748</v>
       </c>
@@ -13333,7 +13325,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>45781</v>
       </c>
@@ -13358,7 +13350,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>45807</v>
       </c>
@@ -13383,7 +13375,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>45659</v>
       </c>
@@ -13408,7 +13400,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>45717</v>
       </c>
@@ -13433,7 +13425,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>45660</v>
       </c>
@@ -13458,7 +13450,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="9">
         <v>45758</v>
       </c>
@@ -13483,7 +13475,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>45658</v>
       </c>
@@ -13508,7 +13500,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="11">
         <v>45717</v>
       </c>
@@ -13533,7 +13525,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="11">
         <v>45748</v>
       </c>
@@ -13558,7 +13550,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>45778</v>
       </c>
@@ -13583,7 +13575,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>45761</v>
       </c>
@@ -13608,7 +13600,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>45663</v>
       </c>
@@ -13633,7 +13625,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>45693</v>
       </c>
@@ -13658,7 +13650,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="11">
         <v>45720</v>
       </c>
@@ -13683,7 +13675,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>45783</v>
       </c>
@@ -13708,7 +13700,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>45661</v>
       </c>
@@ -13733,7 +13725,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>45691</v>
       </c>
@@ -13758,7 +13750,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="11">
         <v>45752</v>
       </c>
@@ -13783,7 +13775,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>45781</v>
       </c>
@@ -13808,7 +13800,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>45811</v>
       </c>
@@ -13833,7 +13825,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>45804</v>
       </c>
@@ -13858,7 +13850,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>45691</v>
       </c>
@@ -13883,7 +13875,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>45675</v>
       </c>
@@ -13908,7 +13900,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>45682</v>
       </c>
@@ -13933,7 +13925,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>45737</v>
       </c>
@@ -13958,7 +13950,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="15">
         <v>45739</v>
       </c>
@@ -13983,7 +13975,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="11">
         <v>45771</v>
       </c>
@@ -14008,7 +14000,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>45775</v>
       </c>
@@ -14033,7 +14025,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
         <v>45796</v>
       </c>
@@ -14058,7 +14050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="15">
         <v>45806</v>
       </c>
@@ -14083,7 +14075,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>45807</v>
       </c>
@@ -14108,7 +14100,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="3">
         <v>45790</v>
       </c>
@@ -14133,7 +14125,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>45670</v>
       </c>
@@ -14158,7 +14150,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
         <v>45783</v>
       </c>
@@ -14183,7 +14175,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
         <v>45686</v>
       </c>
@@ -14208,7 +14200,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
         <v>45724</v>
       </c>
@@ -14233,7 +14225,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>45673</v>
       </c>
@@ -14258,7 +14250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
         <v>45735</v>
       </c>
@@ -14283,7 +14275,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>45736</v>
       </c>
@@ -14308,7 +14300,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="11">
         <v>45770</v>
       </c>
@@ -14333,7 +14325,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>45777</v>
       </c>
@@ -14358,7 +14350,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
         <v>45720</v>
       </c>
@@ -14383,7 +14375,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>45781</v>
       </c>
@@ -14408,7 +14400,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>45751</v>
       </c>
@@ -14433,7 +14425,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>45797</v>
       </c>
@@ -14458,7 +14450,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
         <v>45777</v>
       </c>
@@ -14483,7 +14475,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="9">
         <v>45714</v>
       </c>
@@ -14508,7 +14500,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>45715</v>
       </c>
@@ -14533,7 +14525,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>45715</v>
       </c>
@@ -14558,7 +14550,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>45729</v>
       </c>
@@ -14583,7 +14575,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>45662</v>
       </c>
@@ -14608,7 +14600,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="9">
         <v>45671</v>
       </c>
@@ -14633,7 +14625,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>45692</v>
       </c>
@@ -14658,7 +14650,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>45735</v>
       </c>
@@ -14683,7 +14675,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="11">
         <v>45753</v>
       </c>
@@ -14708,7 +14700,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>45782</v>
       </c>
@@ -14733,7 +14725,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>45680</v>
       </c>
@@ -14758,7 +14750,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>45683</v>
       </c>
@@ -14783,7 +14775,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="11">
         <v>45773</v>
       </c>
@@ -14808,7 +14800,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="11">
         <v>45763</v>
       </c>
@@ -14833,7 +14825,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>45775</v>
       </c>
@@ -14858,7 +14850,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
         <v>45754</v>
       </c>
@@ -14883,7 +14875,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>45789</v>
       </c>
@@ -14908,7 +14900,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
         <v>45681</v>
       </c>
@@ -14933,7 +14925,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>45709</v>
       </c>
@@ -14958,7 +14950,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
         <v>45721</v>
       </c>
@@ -14983,7 +14975,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="9">
         <v>45721</v>
       </c>
@@ -15008,7 +15000,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
         <v>45748</v>
       </c>
@@ -15033,7 +15025,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
         <v>45784</v>
       </c>
@@ -15058,7 +15050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>45791</v>
       </c>
@@ -15083,7 +15075,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="9">
         <v>45793</v>
       </c>
@@ -15108,7 +15100,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>45801</v>
       </c>
@@ -15133,7 +15125,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>45807</v>
       </c>
@@ -15158,7 +15150,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>45689</v>
       </c>
@@ -15183,7 +15175,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="25">
         <v>45687</v>
       </c>
@@ -15208,7 +15200,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="25">
         <v>45708</v>
       </c>
@@ -15233,7 +15225,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="28">
         <v>45712</v>
       </c>
@@ -15258,7 +15250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="3">
         <v>45758</v>
       </c>
@@ -15283,7 +15275,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="51">
         <v>45681</v>
       </c>
@@ -15308,7 +15300,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="51">
         <v>45684</v>
       </c>
@@ -15333,7 +15325,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="28">
         <v>45729</v>
       </c>
@@ -15358,7 +15350,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="51">
         <v>45770</v>
       </c>
@@ -15383,7 +15375,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>45784</v>
       </c>
@@ -15408,7 +15400,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
         <v>45807</v>
       </c>
@@ -15433,7 +15425,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>45816</v>
       </c>
@@ -15458,7 +15450,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
         <v>45706</v>
       </c>
@@ -15483,7 +15475,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="14">
         <v>45814</v>
       </c>
@@ -15508,7 +15500,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
         <v>45665</v>
       </c>
@@ -15533,7 +15525,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
         <v>45663</v>
       </c>
@@ -15558,7 +15550,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
         <v>45666</v>
       </c>
@@ -15583,7 +15575,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="9">
         <v>45680</v>
       </c>
@@ -15608,7 +15600,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
         <v>45708</v>
       </c>
@@ -15633,7 +15625,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="9">
         <v>45708</v>
       </c>
@@ -15658,7 +15650,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
         <v>45709</v>
       </c>
@@ -15683,7 +15675,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
         <v>45721</v>
       </c>
@@ -15708,7 +15700,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="3">
         <v>45710</v>
       </c>
@@ -15733,7 +15725,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="11">
         <v>45769</v>
       </c>
@@ -15758,7 +15750,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
         <v>45803</v>
       </c>
@@ -15783,7 +15775,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>45748</v>
       </c>
@@ -15808,7 +15800,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="9">
         <v>45748</v>
       </c>
@@ -15833,7 +15825,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
         <v>45665</v>
       </c>
@@ -15858,7 +15850,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="11">
         <v>45755</v>
       </c>
@@ -15883,7 +15875,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
         <v>45786</v>
       </c>
@@ -15908,7 +15900,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>45803</v>
       </c>
@@ -15933,7 +15925,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
         <v>45812</v>
       </c>
@@ -15958,7 +15950,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="3">
         <v>45675</v>
       </c>
@@ -15983,7 +15975,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="3">
         <v>45723</v>
       </c>
@@ -16008,7 +16000,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="3">
         <v>45767</v>
       </c>
@@ -16033,7 +16025,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
         <v>45801</v>
       </c>
@@ -16058,7 +16050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
         <v>45666</v>
       </c>
@@ -16083,7 +16075,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
         <v>45786</v>
       </c>
@@ -16108,7 +16100,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="3">
         <v>45792</v>
       </c>
@@ -16133,7 +16125,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="3">
         <v>45671</v>
       </c>
@@ -16158,7 +16150,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="11">
         <v>45759</v>
       </c>
@@ -16183,7 +16175,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="3">
         <v>45791</v>
       </c>
@@ -16208,7 +16200,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
         <v>45701</v>
       </c>
@@ -16233,7 +16225,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="3">
         <v>45716</v>
       </c>
@@ -16258,7 +16250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="3">
         <v>45783</v>
       </c>
@@ -16283,7 +16275,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="3">
         <v>45676</v>
       </c>
@@ -16308,7 +16300,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="3">
         <v>45686</v>
       </c>
@@ -16333,7 +16325,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="9">
         <v>45688</v>
       </c>
@@ -16358,7 +16350,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="3">
         <v>45723</v>
       </c>
@@ -16383,7 +16375,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="3">
         <v>45779</v>
       </c>
@@ -16408,7 +16400,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="3">
         <v>45669</v>
       </c>
@@ -16433,18 +16425,29 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="3"/>
-      <c r="B514" s="5"/>
-      <c r="D514" s="4"/>
-      <c r="E514" s="12"/>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A514" s="3">
+        <v>45826</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C514" t="s">
+        <v>100</v>
+      </c>
+      <c r="D514" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E514" s="12">
+        <v>5000000000</v>
+      </c>
       <c r="F514" s="35" t="str">
         <f>IF(A514="","",TEXT(A514,"mmmm"))</f>
-        <v/>
-      </c>
-      <c r="G514" t="str">
+        <v>junho</v>
+      </c>
+      <c r="G514">
         <f>IF(A514="","",YEAR(A514))</f>
-        <v/>
+        <v>2025</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikei\Documents\dashboard-vendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CAF368-9F3F-484E-86C4-739C7F0407BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A15D2B5-621E-41B6-A3A4-CABE39FEA2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ABFF1A1F-2B5A-470E-9F04-25A930523244}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="890">
   <si>
     <t>Data da Venda</t>
   </si>
@@ -3588,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC60D6BC-214E-4CC7-B79F-BC9082F930E2}">
   <dimension ref="A1:G514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="H504" sqref="H504"/>
+    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
+      <selection activeCell="A514" sqref="A514:G514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16426,29 +16426,11 @@
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A514" s="3">
-        <v>45826</v>
-      </c>
-      <c r="B514" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C514" t="s">
-        <v>100</v>
-      </c>
-      <c r="D514" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E514" s="12">
-        <v>5000000000</v>
-      </c>
-      <c r="F514" s="35" t="str">
-        <f>IF(A514="","",TEXT(A514,"mmmm"))</f>
-        <v>junho</v>
-      </c>
-      <c r="G514">
-        <f>IF(A514="","",YEAR(A514))</f>
-        <v>2025</v>
-      </c>
+      <c r="A514" s="3"/>
+      <c r="B514" s="5"/>
+      <c r="D514" s="4"/>
+      <c r="E514" s="12"/>
+      <c r="F514" s="35"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A112:C174">
